--- a/data-raw/mobilityAH_adjMat_20230629.xlsx
+++ b/data-raw/mobilityAH_adjMat_20230629.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbedinge\Documents\GitHub\AHgen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbedinge\Documents\GitHub\AHgen\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,9 +72,6 @@
     <t>Node</t>
   </si>
   <si>
-    <t>levelName2</t>
-  </si>
-  <si>
     <t>levelName_full</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Resources</t>
+  </si>
+  <si>
+    <t>levelName</t>
   </si>
 </sst>
 </file>
@@ -665,29 +665,6 @@
   <dxfs count="16">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Nova Cond"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -887,6 +864,29 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Nova Cond"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -991,18 +991,18 @@
   <tableColumns count="14">
     <tableColumn id="477" name="level" dataDxfId="13"/>
     <tableColumn id="478" name="levelName_full" dataDxfId="12"/>
-    <tableColumn id="11" name="levelName2" dataDxfId="0"/>
-    <tableColumn id="1" name="Node" dataDxfId="11"/>
-    <tableColumn id="2" name="Provide efficient and accessible mobility" dataDxfId="10"/>
-    <tableColumn id="3" name="Increased road user safety" dataDxfId="9"/>
-    <tableColumn id="4" name="Road user satisfaction" dataDxfId="8"/>
-    <tableColumn id="5" name="Safe efficient traffic flow" dataDxfId="7"/>
-    <tableColumn id="6" name="Compliant user behaviour" dataDxfId="6"/>
-    <tableColumn id="7" name="Effective occupant protection" dataDxfId="5"/>
-    <tableColumn id="8" name="Road Transportation System capabilities and limitations" dataDxfId="4"/>
-    <tableColumn id="9" name="Driver capabilities and limitations" dataDxfId="3"/>
-    <tableColumn id="10" name="Vehicle capacity" dataDxfId="2"/>
-    <tableColumn id="27" name="Vehicle components" dataDxfId="1"/>
+    <tableColumn id="11" name="levelName" dataDxfId="11"/>
+    <tableColumn id="1" name="Node" dataDxfId="10"/>
+    <tableColumn id="2" name="Provide efficient and accessible mobility" dataDxfId="9"/>
+    <tableColumn id="3" name="Increased road user safety" dataDxfId="8"/>
+    <tableColumn id="4" name="Road user satisfaction" dataDxfId="7"/>
+    <tableColumn id="5" name="Safe efficient traffic flow" dataDxfId="6"/>
+    <tableColumn id="6" name="Compliant user behaviour" dataDxfId="5"/>
+    <tableColumn id="7" name="Effective occupant protection" dataDxfId="4"/>
+    <tableColumn id="8" name="Road Transportation System capabilities and limitations" dataDxfId="3"/>
+    <tableColumn id="9" name="Driver capabilities and limitations" dataDxfId="2"/>
+    <tableColumn id="10" name="Vehicle capacity" dataDxfId="1"/>
+    <tableColumn id="27" name="Vehicle components" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14"/>
@@ -1231,10 +1231,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>16</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>8</v>
@@ -1454,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -1498,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
@@ -1542,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>12</v>
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
@@ -1674,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
